--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.7763862434292</v>
+        <v>15.713363</v>
       </c>
       <c r="H2">
-        <v>13.7763862434292</v>
+        <v>47.140089</v>
       </c>
       <c r="I2">
-        <v>0.7604835326301099</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J2">
-        <v>0.7604835326301099</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.55935897783077</v>
+        <v>8.184475000000001</v>
       </c>
       <c r="N2">
-        <v>6.55935897783077</v>
+        <v>24.553425</v>
       </c>
       <c r="O2">
-        <v>0.7096282694699013</v>
+        <v>0.7204961874195497</v>
       </c>
       <c r="P2">
-        <v>0.7096282694699013</v>
+        <v>0.7204961874195498</v>
       </c>
       <c r="Q2">
-        <v>90.36426278790164</v>
+        <v>128.605626639425</v>
       </c>
       <c r="R2">
-        <v>90.36426278790164</v>
+        <v>1157.450639754825</v>
       </c>
       <c r="S2">
-        <v>0.5396606132206622</v>
+        <v>0.5335457278774149</v>
       </c>
       <c r="T2">
-        <v>0.5396606132206622</v>
+        <v>0.5335457278774149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.7763862434292</v>
+        <v>15.713363</v>
       </c>
       <c r="H3">
-        <v>13.7763862434292</v>
+        <v>47.140089</v>
       </c>
       <c r="I3">
-        <v>0.7604835326301099</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J3">
-        <v>0.7604835326301099</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.93911310936401</v>
+        <v>1.989050666666667</v>
       </c>
       <c r="N3">
-        <v>1.93911310936401</v>
+        <v>5.967152</v>
       </c>
       <c r="O3">
-        <v>0.2097841396933961</v>
+        <v>0.1751002259665582</v>
       </c>
       <c r="P3">
-        <v>0.2097841396933961</v>
+        <v>0.1751002259665583</v>
       </c>
       <c r="Q3">
-        <v>26.71397116429557</v>
+        <v>31.25467515072533</v>
       </c>
       <c r="R3">
-        <v>26.71397116429557</v>
+        <v>281.292076356528</v>
       </c>
       <c r="S3">
-        <v>0.1595373836438023</v>
+        <v>0.1296661649930783</v>
       </c>
       <c r="T3">
-        <v>0.1595373836438023</v>
+        <v>0.1296661649930783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7763862434292</v>
+        <v>15.713363</v>
       </c>
       <c r="H4">
-        <v>13.7763862434292</v>
+        <v>47.140089</v>
       </c>
       <c r="I4">
-        <v>0.7604835326301099</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J4">
-        <v>0.7604835326301099</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.170709019552202</v>
+        <v>0.271258</v>
       </c>
       <c r="N4">
-        <v>0.170709019552202</v>
+        <v>0.813774</v>
       </c>
       <c r="O4">
-        <v>0.01846825986154436</v>
+        <v>0.02387940030448528</v>
       </c>
       <c r="P4">
-        <v>0.01846825986154436</v>
+        <v>0.02387940030448529</v>
       </c>
       <c r="Q4">
-        <v>2.351753388588242</v>
+        <v>4.262375420654</v>
       </c>
       <c r="R4">
-        <v>2.351753388588242</v>
+        <v>38.361378785886</v>
       </c>
       <c r="S4">
-        <v>0.01404480750103812</v>
+        <v>0.01768330247848174</v>
       </c>
       <c r="T4">
-        <v>0.01404480750103812</v>
+        <v>0.01768330247848174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7763862434292</v>
+        <v>15.713363</v>
       </c>
       <c r="H5">
-        <v>13.7763862434292</v>
+        <v>47.140089</v>
       </c>
       <c r="I5">
-        <v>0.7604835326301099</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J5">
-        <v>0.7604835326301099</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.574192163501496</v>
+        <v>0.128277</v>
       </c>
       <c r="N5">
-        <v>0.574192163501496</v>
+        <v>0.384831</v>
       </c>
       <c r="O5">
-        <v>0.06211933097515825</v>
+        <v>0.01129248845327496</v>
       </c>
       <c r="P5">
-        <v>0.06211933097515825</v>
+        <v>0.01129248845327496</v>
       </c>
       <c r="Q5">
-        <v>7.910293022346861</v>
+        <v>2.015663065551</v>
       </c>
       <c r="R5">
-        <v>7.910293022346861</v>
+        <v>18.140967589959</v>
       </c>
       <c r="S5">
-        <v>0.04724072826460735</v>
+        <v>0.008362374536537915</v>
       </c>
       <c r="T5">
-        <v>0.04724072826460735</v>
+        <v>0.008362374536537915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4888969527571</v>
+        <v>15.713363</v>
       </c>
       <c r="H6">
-        <v>2.4888969527571</v>
+        <v>47.140089</v>
       </c>
       <c r="I6">
-        <v>0.1373919918866829</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J6">
-        <v>0.1373919918866829</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.55935897783077</v>
+        <v>0.01723733333333333</v>
       </c>
       <c r="N6">
-        <v>6.55935897783077</v>
+        <v>0.051712</v>
       </c>
       <c r="O6">
-        <v>0.7096282694699013</v>
+        <v>0.001517437947815417</v>
       </c>
       <c r="P6">
-        <v>0.7096282694699013</v>
+        <v>0.001517437947815417</v>
       </c>
       <c r="Q6">
-        <v>16.32556857196293</v>
+        <v>0.2708564758186667</v>
       </c>
       <c r="R6">
-        <v>16.32556857196293</v>
+        <v>2.437708282368</v>
       </c>
       <c r="S6">
-        <v>0.09749724144156954</v>
+        <v>0.001123701344313344</v>
       </c>
       <c r="T6">
-        <v>0.09749724144156954</v>
+        <v>0.001123701344313344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4888969527571</v>
+        <v>15.713363</v>
       </c>
       <c r="H7">
-        <v>2.4888969527571</v>
+        <v>47.140089</v>
       </c>
       <c r="I7">
-        <v>0.1373919918866829</v>
+        <v>0.7405254006801951</v>
       </c>
       <c r="J7">
-        <v>0.1373919918866829</v>
+        <v>0.740525400680195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93911310936401</v>
+        <v>0.7692</v>
       </c>
       <c r="N7">
-        <v>1.93911310936401</v>
+        <v>2.3076</v>
       </c>
       <c r="O7">
-        <v>0.2097841396933961</v>
+        <v>0.06771425990831635</v>
       </c>
       <c r="P7">
-        <v>0.2097841396933961</v>
+        <v>0.06771425990831637</v>
       </c>
       <c r="Q7">
-        <v>4.826252708947429</v>
+        <v>12.0867188196</v>
       </c>
       <c r="R7">
-        <v>4.826252708947429</v>
+        <v>108.7804693764</v>
       </c>
       <c r="S7">
-        <v>0.02882266081870983</v>
+        <v>0.05014412945036884</v>
       </c>
       <c r="T7">
-        <v>0.02882266081870983</v>
+        <v>0.05014412945036884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4888969527571</v>
+        <v>2.510288666666666</v>
       </c>
       <c r="H8">
-        <v>2.4888969527571</v>
+        <v>7.530866</v>
       </c>
       <c r="I8">
-        <v>0.1373919918866829</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="J8">
-        <v>0.1373919918866829</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.170709019552202</v>
+        <v>8.184475000000001</v>
       </c>
       <c r="N8">
-        <v>0.170709019552202</v>
+        <v>24.553425</v>
       </c>
       <c r="O8">
-        <v>0.01846825986154436</v>
+        <v>0.7204961874195497</v>
       </c>
       <c r="P8">
-        <v>0.01846825986154436</v>
+        <v>0.7204961874195498</v>
       </c>
       <c r="Q8">
-        <v>0.4248771585716277</v>
+        <v>20.54539483511667</v>
       </c>
       <c r="R8">
-        <v>0.4248771585716277</v>
+        <v>184.90855351605</v>
       </c>
       <c r="S8">
-        <v>0.002537391009058455</v>
+        <v>0.0852366100012513</v>
       </c>
       <c r="T8">
-        <v>0.002537391009058455</v>
+        <v>0.08523661000125131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4888969527571</v>
+        <v>2.510288666666666</v>
       </c>
       <c r="H9">
-        <v>2.4888969527571</v>
+        <v>7.530866</v>
       </c>
       <c r="I9">
-        <v>0.1373919918866829</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="J9">
-        <v>0.1373919918866829</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.574192163501496</v>
+        <v>1.989050666666667</v>
       </c>
       <c r="N9">
-        <v>0.574192163501496</v>
+        <v>5.967152</v>
       </c>
       <c r="O9">
-        <v>0.06211933097515825</v>
+        <v>0.1751002259665582</v>
       </c>
       <c r="P9">
-        <v>0.06211933097515825</v>
+        <v>0.1751002259665583</v>
       </c>
       <c r="Q9">
-        <v>1.42910512603588</v>
+        <v>4.993091345959111</v>
       </c>
       <c r="R9">
-        <v>1.42910512603588</v>
+        <v>44.937822113632</v>
       </c>
       <c r="S9">
-        <v>0.008534698617345115</v>
+        <v>0.02071482116414254</v>
       </c>
       <c r="T9">
-        <v>0.008534698617345115</v>
+        <v>0.02071482116414255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.85001536364441</v>
+        <v>2.510288666666666</v>
       </c>
       <c r="H10">
-        <v>1.85001536364441</v>
+        <v>7.530866</v>
       </c>
       <c r="I10">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="J10">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.55935897783077</v>
+        <v>0.271258</v>
       </c>
       <c r="N10">
-        <v>6.55935897783077</v>
+        <v>0.813774</v>
       </c>
       <c r="O10">
-        <v>0.7096282694699013</v>
+        <v>0.02387940030448528</v>
       </c>
       <c r="P10">
-        <v>0.7096282694699013</v>
+        <v>0.02387940030448529</v>
       </c>
       <c r="Q10">
-        <v>12.13491488464582</v>
+        <v>0.6809358831426666</v>
       </c>
       <c r="R10">
-        <v>12.13491488464582</v>
+        <v>6.128422948283999</v>
       </c>
       <c r="S10">
-        <v>0.07247041480766969</v>
+        <v>0.002824996393259118</v>
       </c>
       <c r="T10">
-        <v>0.07247041480766969</v>
+        <v>0.002824996393259119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.85001536364441</v>
+        <v>2.510288666666666</v>
       </c>
       <c r="H11">
-        <v>1.85001536364441</v>
+        <v>7.530866</v>
       </c>
       <c r="I11">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="J11">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.93911310936401</v>
+        <v>0.128277</v>
       </c>
       <c r="N11">
-        <v>1.93911310936401</v>
+        <v>0.384831</v>
       </c>
       <c r="O11">
-        <v>0.2097841396933961</v>
+        <v>0.01129248845327496</v>
       </c>
       <c r="P11">
-        <v>0.2097841396933961</v>
+        <v>0.01129248845327496</v>
       </c>
       <c r="Q11">
-        <v>3.587389044167701</v>
+        <v>0.322012299294</v>
       </c>
       <c r="R11">
-        <v>3.587389044167701</v>
+        <v>2.898110693646</v>
       </c>
       <c r="S11">
-        <v>0.02142409523088394</v>
+        <v>0.001335931335990459</v>
       </c>
       <c r="T11">
-        <v>0.02142409523088394</v>
+        <v>0.001335931335990459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.85001536364441</v>
+        <v>2.510288666666666</v>
       </c>
       <c r="H12">
-        <v>1.85001536364441</v>
+        <v>7.530866</v>
       </c>
       <c r="I12">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="J12">
-        <v>0.1021244754832072</v>
+        <v>0.1183026523797793</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.170709019552202</v>
+        <v>0.01723733333333333</v>
       </c>
       <c r="N12">
-        <v>0.170709019552202</v>
+        <v>0.051712</v>
       </c>
       <c r="O12">
-        <v>0.01846825986154436</v>
+        <v>0.001517437947815417</v>
       </c>
       <c r="P12">
-        <v>0.01846825986154436</v>
+        <v>0.001517437947815417</v>
       </c>
       <c r="Q12">
-        <v>0.3158143088842477</v>
+        <v>0.04327068251022222</v>
       </c>
       <c r="R12">
-        <v>0.3158143088842477</v>
+        <v>0.389436142592</v>
       </c>
       <c r="S12">
-        <v>0.001886061351447787</v>
+        <v>0.0001795169340482929</v>
       </c>
       <c r="T12">
-        <v>0.001886061351447787</v>
+        <v>0.000179516934048293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.510288666666666</v>
+      </c>
+      <c r="H13">
+        <v>7.530866</v>
+      </c>
+      <c r="I13">
+        <v>0.1183026523797793</v>
+      </c>
+      <c r="J13">
+        <v>0.1183026523797793</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7692</v>
+      </c>
+      <c r="N13">
+        <v>2.3076</v>
+      </c>
+      <c r="O13">
+        <v>0.06771425990831635</v>
+      </c>
+      <c r="P13">
+        <v>0.06771425990831637</v>
+      </c>
+      <c r="Q13">
+        <v>1.9309140424</v>
+      </c>
+      <c r="R13">
+        <v>17.3782263816</v>
+      </c>
+      <c r="S13">
+        <v>0.008010776551087576</v>
+      </c>
+      <c r="T13">
+        <v>0.008010776551087577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.018569</v>
+      </c>
+      <c r="H14">
+        <v>0.055707</v>
+      </c>
+      <c r="I14">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J14">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.184475000000001</v>
+      </c>
+      <c r="N14">
+        <v>24.553425</v>
+      </c>
+      <c r="O14">
+        <v>0.7204961874195497</v>
+      </c>
+      <c r="P14">
+        <v>0.7204961874195498</v>
+      </c>
+      <c r="Q14">
+        <v>0.151977516275</v>
+      </c>
+      <c r="R14">
+        <v>1.367797646475</v>
+      </c>
+      <c r="S14">
+        <v>0.00063050860728895</v>
+      </c>
+      <c r="T14">
+        <v>0.0006305086072889501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.018569</v>
+      </c>
+      <c r="H15">
+        <v>0.055707</v>
+      </c>
+      <c r="I15">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J15">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.989050666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.967152</v>
+      </c>
+      <c r="O15">
+        <v>0.1751002259665582</v>
+      </c>
+      <c r="P15">
+        <v>0.1751002259665583</v>
+      </c>
+      <c r="Q15">
+        <v>0.03693468182933334</v>
+      </c>
+      <c r="R15">
+        <v>0.332412136464</v>
+      </c>
+      <c r="S15">
+        <v>0.0001532307894724045</v>
+      </c>
+      <c r="T15">
+        <v>0.0001532307894724045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.018569</v>
+      </c>
+      <c r="H16">
+        <v>0.055707</v>
+      </c>
+      <c r="I16">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J16">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.271258</v>
+      </c>
+      <c r="N16">
+        <v>0.813774</v>
+      </c>
+      <c r="O16">
+        <v>0.02387940030448528</v>
+      </c>
+      <c r="P16">
+        <v>0.02387940030448529</v>
+      </c>
+      <c r="Q16">
+        <v>0.005036989802</v>
+      </c>
+      <c r="R16">
+        <v>0.045332908218</v>
+      </c>
+      <c r="S16">
+        <v>2.089694254011235E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.089694254011235E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.018569</v>
+      </c>
+      <c r="H17">
+        <v>0.055707</v>
+      </c>
+      <c r="I17">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J17">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.128277</v>
+      </c>
+      <c r="N17">
+        <v>0.384831</v>
+      </c>
+      <c r="O17">
+        <v>0.01129248845327496</v>
+      </c>
+      <c r="P17">
+        <v>0.01129248845327496</v>
+      </c>
+      <c r="Q17">
+        <v>0.002381975613</v>
+      </c>
+      <c r="R17">
+        <v>0.021437780517</v>
+      </c>
+      <c r="S17">
+        <v>9.882094162081823E-06</v>
+      </c>
+      <c r="T17">
+        <v>9.882094162081826E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.018569</v>
+      </c>
+      <c r="H18">
+        <v>0.055707</v>
+      </c>
+      <c r="I18">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J18">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01723733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.051712</v>
+      </c>
+      <c r="O18">
+        <v>0.001517437947815417</v>
+      </c>
+      <c r="P18">
+        <v>0.001517437947815417</v>
+      </c>
+      <c r="Q18">
+        <v>0.0003200800426666666</v>
+      </c>
+      <c r="R18">
+        <v>0.002880720384</v>
+      </c>
+      <c r="S18">
+        <v>1.327914989461804E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.327914989461804E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.018569</v>
+      </c>
+      <c r="H19">
+        <v>0.055707</v>
+      </c>
+      <c r="I19">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="J19">
+        <v>0.0008751033222633845</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7692</v>
+      </c>
+      <c r="N19">
+        <v>2.3076</v>
+      </c>
+      <c r="O19">
+        <v>0.06771425990831635</v>
+      </c>
+      <c r="P19">
+        <v>0.06771425990831637</v>
+      </c>
+      <c r="Q19">
+        <v>0.0142832748</v>
+      </c>
+      <c r="R19">
+        <v>0.1285494732</v>
+      </c>
+      <c r="S19">
+        <v>5.925697381037394E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.925697381037396E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.976988</v>
+      </c>
+      <c r="H20">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J20">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.184475000000001</v>
+      </c>
+      <c r="N20">
+        <v>24.553425</v>
+      </c>
+      <c r="O20">
+        <v>0.7204961874195497</v>
+      </c>
+      <c r="P20">
+        <v>0.7204961874195498</v>
+      </c>
+      <c r="Q20">
+        <v>24.3650838613</v>
+      </c>
+      <c r="R20">
+        <v>219.2857547517</v>
+      </c>
+      <c r="S20">
+        <v>0.1010833409335945</v>
+      </c>
+      <c r="T20">
+        <v>0.1010833409335945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.976988</v>
+      </c>
+      <c r="H21">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J21">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.989050666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.967152</v>
+      </c>
+      <c r="O21">
+        <v>0.1751002259665582</v>
+      </c>
+      <c r="P21">
+        <v>0.1751002259665583</v>
+      </c>
+      <c r="Q21">
+        <v>5.921379966058667</v>
+      </c>
+      <c r="R21">
+        <v>53.292419694528</v>
+      </c>
+      <c r="S21">
+        <v>0.02456600901986507</v>
+      </c>
+      <c r="T21">
+        <v>0.02456600901986507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.976988</v>
+      </c>
+      <c r="H22">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J22">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.271258</v>
+      </c>
+      <c r="N22">
+        <v>0.813774</v>
+      </c>
+      <c r="O22">
+        <v>0.02387940030448528</v>
+      </c>
+      <c r="P22">
+        <v>0.02387940030448529</v>
+      </c>
+      <c r="Q22">
+        <v>0.8075318109039999</v>
+      </c>
+      <c r="R22">
+        <v>7.267786298136</v>
+      </c>
+      <c r="S22">
+        <v>0.003350204490204318</v>
+      </c>
+      <c r="T22">
+        <v>0.003350204490204318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.976988</v>
+      </c>
+      <c r="H23">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J23">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.128277</v>
+      </c>
+      <c r="N23">
+        <v>0.384831</v>
+      </c>
+      <c r="O23">
+        <v>0.01129248845327496</v>
+      </c>
+      <c r="P23">
+        <v>0.01129248845327496</v>
+      </c>
+      <c r="Q23">
+        <v>0.381879089676</v>
+      </c>
+      <c r="R23">
+        <v>3.436911807084</v>
+      </c>
+      <c r="S23">
+        <v>0.001584300486584503</v>
+      </c>
+      <c r="T23">
+        <v>0.001584300486584504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.85001536364441</v>
-      </c>
-      <c r="H13">
-        <v>1.85001536364441</v>
-      </c>
-      <c r="I13">
-        <v>0.1021244754832072</v>
-      </c>
-      <c r="J13">
-        <v>0.1021244754832072</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.574192163501496</v>
-      </c>
-      <c r="N13">
-        <v>0.574192163501496</v>
-      </c>
-      <c r="O13">
-        <v>0.06211933097515825</v>
-      </c>
-      <c r="P13">
-        <v>0.06211933097515825</v>
-      </c>
-      <c r="Q13">
-        <v>1.062264324161991</v>
-      </c>
-      <c r="R13">
-        <v>1.062264324161991</v>
-      </c>
-      <c r="S13">
-        <v>0.006343904093205782</v>
-      </c>
-      <c r="T13">
-        <v>0.006343904093205782</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.976988</v>
+      </c>
+      <c r="H24">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J24">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01723733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.051712</v>
+      </c>
+      <c r="O24">
+        <v>0.001517437947815417</v>
+      </c>
+      <c r="P24">
+        <v>0.001517437947815417</v>
+      </c>
+      <c r="Q24">
+        <v>0.05131533448533333</v>
+      </c>
+      <c r="R24">
+        <v>0.461838010368</v>
+      </c>
+      <c r="S24">
+        <v>0.0002128917544643177</v>
+      </c>
+      <c r="T24">
+        <v>0.0002128917544643178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.976988</v>
+      </c>
+      <c r="H25">
+        <v>8.930963999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="J25">
+        <v>0.1402968436177623</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7692</v>
+      </c>
+      <c r="N25">
+        <v>2.3076</v>
+      </c>
+      <c r="O25">
+        <v>0.06771425990831635</v>
+      </c>
+      <c r="P25">
+        <v>0.06771425990831637</v>
+      </c>
+      <c r="Q25">
+        <v>2.2898991696</v>
+      </c>
+      <c r="R25">
+        <v>20.6090925264</v>
+      </c>
+      <c r="S25">
+        <v>0.009500096933049571</v>
+      </c>
+      <c r="T25">
+        <v>0.009500096933049573</v>
       </c>
     </row>
   </sheetData>
